--- a/biology/Médecine/Chorée_de_Sydenham/Chorée_de_Sydenham.xlsx
+++ b/biology/Médecine/Chorée_de_Sydenham/Chorée_de_Sydenham.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Chor%C3%A9e_de_Sydenham</t>
+          <t>Chorée_de_Sydenham</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La chorée de Sydenham, nommée ainsi d'après Thomas Sydenham, est une maladie infectieuse du système nerveux central, apparaissant après une infection à streptocoques bêta-hémolytique du groupe A, avec fièvre, caractérisée par des mouvements involontaires et contractions des muscles du tronc et des extrémités. Elle touche les enfants de 7 à 14 ans consécutivement à une contamination aux streptocoques. Les antigènes streptococciques ressemblent à ceux retrouvés au niveau des tissus nerveux, ce qui entraîne un rhumatisme articulaire aigu (RAA)[1],[2]. Elle peut guérir naturellement[3] ; on la traite habituellement à la pénicilline.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La chorée de Sydenham, nommée ainsi d'après Thomas Sydenham, est une maladie infectieuse du système nerveux central, apparaissant après une infection à streptocoques bêta-hémolytique du groupe A, avec fièvre, caractérisée par des mouvements involontaires et contractions des muscles du tronc et des extrémités. Elle touche les enfants de 7 à 14 ans consécutivement à une contamination aux streptocoques. Les antigènes streptococciques ressemblent à ceux retrouvés au niveau des tissus nerveux, ce qui entraîne un rhumatisme articulaire aigu (RAA),. Elle peut guérir naturellement ; on la traite habituellement à la pénicilline.
 En langage courant, elle est appelée la « danse de Saint-Guy ».
 </t>
         </is>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Chor%C3%A9e_de_Sydenham</t>
+          <t>Chorée_de_Sydenham</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,10 +524,12 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'appellation « danse de Saint-Guy » semble dater du IXe siècle, après des guérisons miraculeuses lors du transfert des reliques de saint Guy de Saint-Denis vers la Saxe. Le culte de saint Guy, en tant que protecteur des épileptiques et des malades atteints de chorée, s'est alors développé[4].
-Andy Warhol en fut atteint durant son enfance[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'appellation « danse de Saint-Guy » semble dater du IXe siècle, après des guérisons miraculeuses lors du transfert des reliques de saint Guy de Saint-Denis vers la Saxe. Le culte de saint Guy, en tant que protecteur des épileptiques et des malades atteints de chorée, s'est alors développé.
+Andy Warhol en fut atteint durant son enfance.
 </t>
         </is>
       </c>
